--- a/molecules-lists/Beatson_U13C Leucine.xlsx
+++ b/molecules-lists/Beatson_U13C Leucine.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\2020_Scripts for Data Processing\Git Repository (March 2020)\molecules-lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tm6\Documents\GitHub\adhoc-data-processing-pipeline\molecules-lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B031FDE-B432-470B-8053-0DE70488838D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA222FD2-02EA-429D-8431-AFA8895842CE}"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>13C</t>
   </si>
@@ -128,12 +128,18 @@
   </si>
   <si>
     <t>Citric Acid M+2</t>
+  </si>
+  <si>
+    <t>Ketoisocaproic acid +6</t>
+  </si>
+  <si>
+    <t>Ketoisocaproic acid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
@@ -785,49 +791,49 @@
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Accent2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Accent3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Accent4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Accent5 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Accent6 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Bad 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Calculation 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Check Cell 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Good 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="20"/>
+    <cellStyle name="20% - Accent2 2" xfId="24"/>
+    <cellStyle name="20% - Accent3 2" xfId="28"/>
+    <cellStyle name="20% - Accent4 2" xfId="32"/>
+    <cellStyle name="20% - Accent5 2" xfId="36"/>
+    <cellStyle name="20% - Accent6 2" xfId="40"/>
+    <cellStyle name="40% - Accent1 2" xfId="21"/>
+    <cellStyle name="40% - Accent2 2" xfId="25"/>
+    <cellStyle name="40% - Accent3 2" xfId="29"/>
+    <cellStyle name="40% - Accent4 2" xfId="33"/>
+    <cellStyle name="40% - Accent5 2" xfId="37"/>
+    <cellStyle name="40% - Accent6 2" xfId="41"/>
+    <cellStyle name="60% - Accent1 2" xfId="22"/>
+    <cellStyle name="60% - Accent2 2" xfId="26"/>
+    <cellStyle name="60% - Accent3 2" xfId="30"/>
+    <cellStyle name="60% - Accent4 2" xfId="34"/>
+    <cellStyle name="60% - Accent5 2" xfId="38"/>
+    <cellStyle name="60% - Accent6 2" xfId="42"/>
+    <cellStyle name="Accent1 2" xfId="19"/>
+    <cellStyle name="Accent2 2" xfId="23"/>
+    <cellStyle name="Accent3 2" xfId="27"/>
+    <cellStyle name="Accent4 2" xfId="31"/>
+    <cellStyle name="Accent5 2" xfId="35"/>
+    <cellStyle name="Accent6 2" xfId="39"/>
+    <cellStyle name="Bad 2" xfId="8"/>
+    <cellStyle name="Calculation 2" xfId="12"/>
+    <cellStyle name="Check Cell 2" xfId="14"/>
+    <cellStyle name="Explanatory Text 2" xfId="17"/>
+    <cellStyle name="Good 2" xfId="7"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Neutral 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Input 2" xfId="10"/>
+    <cellStyle name="Linked Cell 2" xfId="13"/>
+    <cellStyle name="Neutral 2" xfId="9"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Note 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Output 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Note 2" xfId="16"/>
+    <cellStyle name="Output 2" xfId="11"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Warning Text 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Total 2" xfId="18"/>
+    <cellStyle name="Warning Text 2" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1138,20 +1144,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3151121-9C59-4B6D-8B77-892B6EEA2D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="str">
         <f>'mz calculations'!A2</f>
         <v>Leucine/IsoLeucine</v>
@@ -1164,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="str">
         <f>'mz calculations'!A3</f>
         <v>Leucine/IsoLeucine +1</v>
@@ -1174,7 +1181,7 @@
         <v>132.09798349763</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>'mz calculations'!A4</f>
         <v>Leucine/IsoLeucine +2</v>
@@ -1184,7 +1191,7 @@
         <v>133.10133833270001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
         <f>'mz calculations'!A5</f>
         <v>Leucine/IsoLeucine +3</v>
@@ -1194,7 +1201,7 @@
         <v>134.10469316777002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
         <f>'mz calculations'!A6</f>
         <v>Leucine/IsoLeucine +4</v>
@@ -1204,7 +1211,7 @@
         <v>135.10804800284001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
         <f>'mz calculations'!A7</f>
         <v>Leucine/IsoLeucine +5</v>
@@ -1214,7 +1221,7 @@
         <v>136.11140283791002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>'mz calculations'!A8</f>
         <v>Leucine/IsoLeucine +6</v>
@@ -1224,7 +1231,7 @@
         <v>137.11475767298001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>'mz calculations'!A9</f>
         <v>Carnitine</v>
@@ -1234,7 +1241,7 @@
         <v>161.10519334659</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="str">
         <f>'mz calculations'!A10</f>
         <v>Acetyl-CoA</v>
@@ -1244,7 +1251,7 @@
         <v>809.12577495811001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>'mz calculations'!A11</f>
         <v>Acetyl-CoA M+1</v>
@@ -1254,7 +1261,7 @@
         <v>810.12912979318003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f>'mz calculations'!A12</f>
         <v>Acetyl-CoA M+2</v>
@@ -1264,7 +1271,7 @@
         <v>811.13248462825004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f>'mz calculations'!A13</f>
         <v>Citric Acid</v>
@@ -1274,7 +1281,7 @@
         <v>192.02700259483001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f>'mz calculations'!A14</f>
         <v>Citric Acid M+1</v>
@@ -1284,7 +1291,7 @@
         <v>193.03035742989999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>'mz calculations'!A15</f>
         <v>Citric Acid M+2</v>
@@ -1294,67 +1301,79 @@
         <v>194.03371226497001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
+        <f>'mz calculations'!A16</f>
+        <v>Ketoisocaproic acid</v>
+      </c>
+      <c r="B15" s="12">
+        <f>'mz calculations'!M16</f>
+        <v>130.06299418101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>'mz calculations'!A17</f>
+        <v>Ketoisocaproic acid +6</v>
+      </c>
+      <c r="B16" s="12">
+        <f>'mz calculations'!M17</f>
+        <v>136.08312319143002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="12"/>
     </row>
@@ -1366,25 +1385,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCFC579-AF05-417E-83D3-295C46C14805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="6.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="6.21875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -1455,7 +1475,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="11">
-        <f>(B2*$Q$2)+(C2*$Q$3)+(D2*$Q$4)+(F2*$Q$5)+(G2*$Q$6)+(H2*$Q$7)+(E2*$Q$8)+(I2*$Q$9)+(J2*$Q$10)+(K2*$Q$11)+(L2*$Q$12)</f>
+        <f t="shared" ref="M2:M31" si="0">(B2*$Q$2)+(C2*$Q$3)+(D2*$Q$4)+(F2*$Q$5)+(G2*$Q$6)+(H2*$Q$7)+(E2*$Q$8)+(I2*$Q$9)+(J2*$Q$10)+(K2*$Q$11)+(L2*$Q$12)</f>
         <v>131.09462866256001</v>
       </c>
       <c r="P2" s="7" t="s">
@@ -1465,7 +1485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="11">
-        <f>(B3*$Q$2)+(C3*$Q$3)+(D3*$Q$4)+(F3*$Q$5)+(G3*$Q$6)+(H3*$Q$7)+(E3*$Q$8)+(I3*$Q$9)+(J3*$Q$10)+(K3*$Q$11)+(L3*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>132.09798349763</v>
       </c>
       <c r="P3" s="7" t="s">
@@ -1495,7 +1515,7 @@
         <v>13.003354835070001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="11">
-        <f>(B4*$Q$2)+(C4*$Q$3)+(D4*$Q$4)+(F4*$Q$5)+(G4*$Q$6)+(H4*$Q$7)+(E4*$Q$8)+(I4*$Q$9)+(J4*$Q$10)+(K4*$Q$11)+(L4*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>133.10133833270001</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -1525,7 +1545,7 @@
         <v>1.00782503223</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="11">
-        <f>(B5*$Q$2)+(C5*$Q$3)+(D5*$Q$4)+(F5*$Q$5)+(G5*$Q$6)+(H5*$Q$7)+(E5*$Q$8)+(I5*$Q$9)+(J5*$Q$10)+(K5*$Q$11)+(L5*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>134.10469316777002</v>
       </c>
       <c r="P5" s="7" t="s">
@@ -1555,7 +1575,7 @@
         <v>15.99491461957</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="11">
-        <f>(B6*$Q$2)+(C6*$Q$3)+(D6*$Q$4)+(F6*$Q$5)+(G6*$Q$6)+(H6*$Q$7)+(E6*$Q$8)+(I6*$Q$9)+(J6*$Q$10)+(K6*$Q$11)+(L6*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>135.10804800284001</v>
       </c>
       <c r="P6" s="7" t="s">
@@ -1585,7 +1605,7 @@
         <v>30.973761998419999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="11">
-        <f>(B7*$Q$2)+(C7*$Q$3)+(D7*$Q$4)+(F7*$Q$5)+(G7*$Q$6)+(H7*$Q$7)+(E7*$Q$8)+(I7*$Q$9)+(J7*$Q$10)+(K7*$Q$11)+(L7*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>136.11140283791002</v>
       </c>
       <c r="P7" s="7" t="s">
@@ -1615,7 +1635,7 @@
         <v>31.972071174410001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
@@ -1635,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="11">
-        <f>(B8*$Q$2)+(C8*$Q$3)+(D8*$Q$4)+(F8*$Q$5)+(G8*$Q$6)+(H8*$Q$7)+(E8*$Q$8)+(I8*$Q$9)+(J8*$Q$10)+(K8*$Q$11)+(L8*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>137.11475767298001</v>
       </c>
       <c r="P8" s="7" t="s">
@@ -1645,7 +1665,7 @@
         <v>14.003074004429999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
@@ -1663,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="11">
-        <f>(B9*$Q$2)+(C9*$Q$3)+(D9*$Q$4)+(F9*$Q$5)+(G9*$Q$6)+(H9*$Q$7)+(E9*$Q$8)+(I9*$Q$9)+(J9*$Q$10)+(K9*$Q$11)+(L9*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>161.10519334659</v>
       </c>
       <c r="P9" s="7" t="s">
@@ -1673,7 +1693,7 @@
         <v>78.918337613999995</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
@@ -1697,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="11">
-        <f>(B10*$Q$2)+(C10*$Q$3)+(D10*$Q$4)+(F10*$Q$5)+(G10*$Q$6)+(H10*$Q$7)+(E10*$Q$8)+(I10*$Q$9)+(J10*$Q$10)+(K10*$Q$11)+(L10*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>809.12577495811001</v>
       </c>
       <c r="P10" s="7" t="s">
@@ -1707,7 +1727,7 @@
         <v>34.968852681999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="11">
-        <f>(B11*$Q$2)+(C11*$Q$3)+(D11*$Q$4)+(F11*$Q$5)+(G11*$Q$6)+(H11*$Q$7)+(E11*$Q$8)+(I11*$Q$9)+(J11*$Q$10)+(K11*$Q$11)+(L11*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>810.12912979318003</v>
       </c>
       <c r="P11" s="7" t="s">
@@ -1743,7 +1763,7 @@
         <v>18.99840316273</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="11">
-        <f>(B12*$Q$2)+(C12*$Q$3)+(D12*$Q$4)+(F12*$Q$5)+(G12*$Q$6)+(H12*$Q$7)+(E12*$Q$8)+(I12*$Q$9)+(J12*$Q$10)+(K12*$Q$11)+(L12*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>811.13248462825004</v>
       </c>
       <c r="P12" s="7" t="s">
@@ -1779,7 +1799,7 @@
         <v>126.9044719</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
@@ -1794,11 +1814,11 @@
         <v>7</v>
       </c>
       <c r="M13" s="11">
-        <f>(B13*$Q$2)+(C13*$Q$3)+(D13*$Q$4)+(F13*$Q$5)+(G13*$Q$6)+(H13*$Q$7)+(E13*$Q$8)+(I13*$Q$9)+(J13*$Q$10)+(K13*$Q$11)+(L13*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>192.02700259483001</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
@@ -1815,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="M14" s="11">
-        <f>(B14*$Q$2)+(C14*$Q$3)+(D14*$Q$4)+(F14*$Q$5)+(G14*$Q$6)+(H14*$Q$7)+(E14*$Q$8)+(I14*$Q$9)+(J14*$Q$10)+(K14*$Q$11)+(L14*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>193.03035742989999</v>
       </c>
       <c r="P14" s="19" t="s">
@@ -1825,7 +1845,7 @@
       <c r="R14" s="20"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
@@ -1842,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="M15" s="11">
-        <f>(B15*$Q$2)+(C15*$Q$3)+(D15*$Q$4)+(F15*$Q$5)+(G15*$Q$6)+(H15*$Q$7)+(E15*$Q$8)+(I15*$Q$9)+(J15*$Q$10)+(K15*$Q$11)+(L15*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>194.03371226497001</v>
       </c>
       <c r="P15" s="22"/>
@@ -1850,38 +1870,58 @@
       <c r="R15" s="23"/>
       <c r="S15" s="24"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
       <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
       <c r="M16" s="11">
-        <f>(B16*$Q$2)+(C16*$Q$3)+(D16*$Q$4)+(F16*$Q$5)+(G16*$Q$6)+(H16*$Q$7)+(E16*$Q$8)+(I16*$Q$9)+(J16*$Q$10)+(K16*$Q$11)+(L16*$Q$12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>130.06299418101</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="24"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
       <c r="M17" s="11">
-        <f>(B17*$Q$2)+(C17*$Q$3)+(D17*$Q$4)+(F17*$Q$5)+(G17*$Q$6)+(H17*$Q$7)+(E17*$Q$8)+(I17*$Q$9)+(J17*$Q$10)+(K17*$Q$11)+(L17*$Q$12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>136.08312319143002</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="M18" s="11">
-        <f>(B18*$Q$2)+(C18*$Q$3)+(D18*$Q$4)+(F18*$Q$5)+(G18*$Q$6)+(H18*$Q$7)+(E18*$Q$8)+(I18*$Q$9)+(J18*$Q$10)+(K18*$Q$11)+(L18*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P18" s="22"/>
@@ -1889,12 +1929,12 @@
       <c r="R18" s="23"/>
       <c r="S18" s="24"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="M19" s="11">
-        <f>(B19*$Q$2)+(C19*$Q$3)+(D19*$Q$4)+(F19*$Q$5)+(G19*$Q$6)+(H19*$Q$7)+(E19*$Q$8)+(I19*$Q$9)+(J19*$Q$10)+(K19*$Q$11)+(L19*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P19" s="22"/>
@@ -1902,12 +1942,12 @@
       <c r="R19" s="23"/>
       <c r="S19" s="24"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="M20" s="11">
-        <f>(B20*$Q$2)+(C20*$Q$3)+(D20*$Q$4)+(F20*$Q$5)+(G20*$Q$6)+(H20*$Q$7)+(E20*$Q$8)+(I20*$Q$9)+(J20*$Q$10)+(K20*$Q$11)+(L20*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20" s="22"/>
@@ -1915,12 +1955,12 @@
       <c r="R20" s="23"/>
       <c r="S20" s="24"/>
     </row>
-    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="M21" s="11">
-        <f>(B21*$Q$2)+(C21*$Q$3)+(D21*$Q$4)+(F21*$Q$5)+(G21*$Q$6)+(H21*$Q$7)+(E21*$Q$8)+(I21*$Q$9)+(J21*$Q$10)+(K21*$Q$11)+(L21*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P21" s="25"/>
@@ -1928,1192 +1968,1192 @@
       <c r="R21" s="26"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="M22" s="11">
-        <f>(B22*$Q$2)+(C22*$Q$3)+(D22*$Q$4)+(F22*$Q$5)+(G22*$Q$6)+(H22*$Q$7)+(E22*$Q$8)+(I22*$Q$9)+(J22*$Q$10)+(K22*$Q$11)+(L22*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="M23" s="11">
-        <f>(B23*$Q$2)+(C23*$Q$3)+(D23*$Q$4)+(F23*$Q$5)+(G23*$Q$6)+(H23*$Q$7)+(E23*$Q$8)+(I23*$Q$9)+(J23*$Q$10)+(K23*$Q$11)+(L23*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="M24" s="11">
-        <f>(B24*$Q$2)+(C24*$Q$3)+(D24*$Q$4)+(F24*$Q$5)+(G24*$Q$6)+(H24*$Q$7)+(E24*$Q$8)+(I24*$Q$9)+(J24*$Q$10)+(K24*$Q$11)+(L24*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="M25" s="11">
-        <f>(B25*$Q$2)+(C25*$Q$3)+(D25*$Q$4)+(F25*$Q$5)+(G25*$Q$6)+(H25*$Q$7)+(E25*$Q$8)+(I25*$Q$9)+(J25*$Q$10)+(K25*$Q$11)+(L25*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="M26" s="11">
-        <f>(B26*$Q$2)+(C26*$Q$3)+(D26*$Q$4)+(F26*$Q$5)+(G26*$Q$6)+(H26*$Q$7)+(E26*$Q$8)+(I26*$Q$9)+(J26*$Q$10)+(K26*$Q$11)+(L26*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="M27" s="11">
-        <f>(B27*$Q$2)+(C27*$Q$3)+(D27*$Q$4)+(F27*$Q$5)+(G27*$Q$6)+(H27*$Q$7)+(E27*$Q$8)+(I27*$Q$9)+(J27*$Q$10)+(K27*$Q$11)+(L27*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="M28" s="11">
-        <f>(B28*$Q$2)+(C28*$Q$3)+(D28*$Q$4)+(F28*$Q$5)+(G28*$Q$6)+(H28*$Q$7)+(E28*$Q$8)+(I28*$Q$9)+(J28*$Q$10)+(K28*$Q$11)+(L28*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="M29" s="11">
-        <f>(B29*$Q$2)+(C29*$Q$3)+(D29*$Q$4)+(F29*$Q$5)+(G29*$Q$6)+(H29*$Q$7)+(E29*$Q$8)+(I29*$Q$9)+(J29*$Q$10)+(K29*$Q$11)+(L29*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="M30" s="11">
-        <f>(B30*$Q$2)+(C30*$Q$3)+(D30*$Q$4)+(F30*$Q$5)+(G30*$Q$6)+(H30*$Q$7)+(E30*$Q$8)+(I30*$Q$9)+(J30*$Q$10)+(K30*$Q$11)+(L30*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="M31" s="11">
-        <f>(B31*$Q$2)+(C31*$Q$3)+(D31*$Q$4)+(F31*$Q$5)+(G31*$Q$6)+(H31*$Q$7)+(E31*$Q$8)+(I31*$Q$9)+(J31*$Q$10)+(K31*$Q$11)+(L31*$Q$12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="5"/>
       <c r="C67" s="8"/>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="8"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="8"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="5"/>
       <c r="C90" s="8"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="5"/>
       <c r="C91" s="8"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="5"/>
       <c r="C92" s="8"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="5"/>
       <c r="C93" s="8"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="5"/>
       <c r="C94" s="8"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="5"/>
       <c r="C97" s="8"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="4"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="4"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="4"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="4"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="4"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="4"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="4"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="4"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="4"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="4"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="4"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="4"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="4"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="4"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="4"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="4"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="4"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="4"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="4"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="4"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="4"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="4"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="4"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="4"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="4"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="4"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="4"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="4"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="4"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="4"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="16"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="16"/>
       <c r="B164" s="4"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="16"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="16"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="16"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="16"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="16"/>
       <c r="B169" s="4"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="16"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="16"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="16"/>
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="16"/>
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="16"/>
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="16"/>
       <c r="B177" s="4"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="16"/>
       <c r="B178" s="4"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="16"/>
       <c r="B179" s="4"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="4"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="16"/>
       <c r="B181" s="4"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="16"/>
       <c r="B182" s="4"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="16"/>
       <c r="B183" s="4"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="16"/>
       <c r="B184" s="4"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="16"/>
       <c r="B185" s="4"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="16"/>
       <c r="B186" s="4"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="16"/>
       <c r="B187" s="4"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="16"/>
       <c r="B188" s="4"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="16"/>
       <c r="B189" s="4"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="16"/>
       <c r="B190" s="4"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="16"/>
       <c r="B191" s="4"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="16"/>
       <c r="B192" s="4"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="16"/>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="16"/>
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="16"/>
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="16"/>
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="16"/>
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="4"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="16"/>
       <c r="B200" s="4"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="16"/>
       <c r="B201" s="4"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="16"/>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="16"/>
       <c r="B203" s="4"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="4"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="16"/>
       <c r="B205" s="4"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="16"/>
       <c r="B206" s="4"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="16"/>
       <c r="B207" s="4"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="16"/>
       <c r="B208" s="4"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="16"/>
       <c r="B209" s="4"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="16"/>
       <c r="B210" s="4"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="16"/>
       <c r="B211" s="4"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="16"/>
       <c r="B212" s="4"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="16"/>
       <c r="B213" s="4"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="16"/>
       <c r="B214" s="4"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="16"/>
       <c r="B215" s="4"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="16"/>
       <c r="B216" s="4"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="16"/>
       <c r="B217" s="4"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="16"/>
       <c r="B218" s="4"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="4"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="16"/>
       <c r="B220" s="4"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="16"/>
       <c r="B221" s="4"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="16"/>
       <c r="B222" s="4"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="16"/>
       <c r="B223" s="4"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="16"/>
       <c r="B224" s="4"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="16"/>
       <c r="B225" s="4"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="16"/>
       <c r="B226" s="4"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="4"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="16"/>
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="16"/>
       <c r="B229" s="4"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="16"/>
       <c r="B230" s="4"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="16"/>
       <c r="B231" s="4"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="16"/>
       <c r="B232" s="4"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="16"/>
       <c r="B233" s="4"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="16"/>
       <c r="B234" s="4"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="16"/>
       <c r="B235" s="4"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="16"/>
       <c r="B236" s="4"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="16"/>
       <c r="B237" s="4"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="16"/>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="16"/>
       <c r="B239" s="4"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="16"/>
       <c r="B240" s="4"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="16"/>
       <c r="B241" s="4"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="16"/>
       <c r="B242" s="4"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="16"/>
       <c r="B243" s="4"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="16"/>
       <c r="B244" s="4"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="16"/>
       <c r="B245" s="4"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="16"/>
       <c r="B246" s="4"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="16"/>
       <c r="B247" s="4"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="16"/>
       <c r="B248" s="4"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="16"/>
       <c r="B249" s="4"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="16"/>
       <c r="B250" s="4"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="16"/>
       <c r="B251" s="4"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="16"/>
       <c r="B252" s="4"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="16"/>
       <c r="B253" s="4"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="16"/>
       <c r="B254" s="4"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="16"/>
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="16"/>
       <c r="B256" s="4"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="16"/>
       <c r="B257" s="4"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="16"/>
       <c r="B258" s="4"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="16"/>
       <c r="B259" s="4"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="16"/>
       <c r="B260" s="4"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="16"/>
       <c r="B261" s="4"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="4"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="16"/>
       <c r="B263" s="4"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="16"/>
       <c r="B264" s="4"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="16"/>
       <c r="B265" s="4"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="16"/>
       <c r="B266" s="4"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="16"/>
       <c r="B267" s="4"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="16"/>
       <c r="B268" s="4"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="16"/>
       <c r="B269" s="4"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="16"/>
       <c r="B270" s="4"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="16"/>
       <c r="B271" s="4"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="16"/>
       <c r="B272" s="4"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="16"/>
       <c r="B273" s="4"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="16"/>
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="16"/>
       <c r="B275" s="4"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="16"/>
       <c r="B276" s="4"/>
     </row>
